--- a/data/trans_dic/P13A_1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_2023-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9349000976690537</v>
+        <v>0.9349000976690536</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9467118753788247</v>
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.8416006019967882</v>
+        <v>0.8454535075012091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8580237754683718</v>
+        <v>0.8797009851459762</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.9774520529233774</v>
+        <v>0.9840577365508697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9812846946084175</v>
+        <v>0.9805232620951614</v>
       </c>
     </row>
     <row r="7">
@@ -633,10 +633,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.8961862207991326</v>
+        <v>0.9019937199649822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9255053755515992</v>
+        <v>0.9312654623335639</v>
       </c>
     </row>
     <row r="9">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.9942699286768446</v>
+        <v>0.9946268403909635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9958704542651614</v>
+        <v>0.9958987721577989</v>
       </c>
     </row>
     <row r="10">
@@ -672,7 +672,7 @@
         <v>0.8696539225162127</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8800859348141741</v>
+        <v>0.880085934814174</v>
       </c>
     </row>
     <row r="11">
@@ -684,10 +684,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.5774012782064344</v>
+        <v>0.636395635977078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5688434514991015</v>
+        <v>0.594366132858234</v>
       </c>
     </row>
     <row r="12">
@@ -699,10 +699,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.9831063076738578</v>
+        <v>0.974204431332964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9754840668492553</v>
+        <v>0.974901860105499</v>
       </c>
     </row>
     <row r="13">
@@ -735,10 +735,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.8878161737841309</v>
+        <v>0.8852264298735595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9066501712097526</v>
+        <v>0.9121041843410628</v>
       </c>
     </row>
     <row r="15">
@@ -750,10 +750,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.9743104352257382</v>
+        <v>0.9750580892062353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9761550192951383</v>
+        <v>0.9764258874925319</v>
       </c>
     </row>
     <row r="16">
@@ -895,10 +895,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>38707</v>
+        <v>38884</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>48209</v>
+        <v>49427</v>
       </c>
     </row>
     <row r="7">
@@ -910,10 +910,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>44955</v>
+        <v>45259</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55134</v>
+        <v>55092</v>
       </c>
     </row>
     <row r="8">
@@ -963,10 +963,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>80905</v>
+        <v>81429</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>108843</v>
+        <v>109521</v>
       </c>
     </row>
     <row r="11">
@@ -978,10 +978,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>89760</v>
+        <v>89792</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>117118</v>
+        <v>117122</v>
       </c>
     </row>
     <row r="12">
@@ -1031,10 +1031,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>15838</v>
+        <v>17456</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16960</v>
+        <v>17721</v>
       </c>
     </row>
     <row r="15">
@@ -1046,10 +1046,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>26966</v>
+        <v>26721</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29084</v>
+        <v>29067</v>
       </c>
     </row>
     <row r="16">
@@ -1099,10 +1099,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>145334</v>
+        <v>144910</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>184599</v>
+        <v>185710</v>
       </c>
     </row>
     <row r="19">
@@ -1114,10 +1114,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>159493</v>
+        <v>159615</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>198751</v>
+        <v>198806</v>
       </c>
     </row>
     <row r="20">
